--- a/project/src/assets/Data.xlsx
+++ b/project/src/assets/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular_Assignment\project\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE73237-9D11-4269-9C19-A771159577EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945D816C-3C0A-4C94-855A-77BAA2F86E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BCE59C97-D87D-4094-ACE4-A0E381088985}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BCE59C97-D87D-4094-ACE4-A0E381088985}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1478,15 +1467,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Company Size</t>
-  </si>
-  <si>
-    <t>Job Titles</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -1538,6 +1518,15 @@
   </si>
   <si>
     <t>BYJU'S</t>
+  </si>
+  <si>
+    <t>JobTitles</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>CompanySize</t>
   </si>
 </sst>
 </file>
@@ -1603,11 +1592,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1935,53 +1923,53 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>488</v>
+      <c r="C2" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>348</v>
       </c>
@@ -1989,16 +1977,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>165</v>
       </c>
@@ -2006,16 +1994,16 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>432</v>
       </c>
@@ -2023,16 +2011,16 @@
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>313</v>
       </c>
@@ -2040,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>360</v>
       </c>
@@ -2057,121 +2045,121 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>494</v>
+      <c r="C8" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>338</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>495</v>
+      <c r="C9" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>497</v>
+      <c r="C10" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>496</v>
+      <c r="C11" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>498</v>
+      <c r="C12" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>488</v>
+      <c r="C13" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>235</v>
       </c>
@@ -2179,17 +2167,17 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>455</v>
       </c>
@@ -2197,17 +2185,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>459</v>
       </c>
@@ -2215,16 +2203,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>457</v>
       </c>
@@ -2232,16 +2220,16 @@
         <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>298</v>
       </c>
@@ -2249,118 +2237,118 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>494</v>
+      <c r="C19" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>495</v>
+      <c r="C20" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>497</v>
+      <c r="C21" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>496</v>
+      <c r="C22" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>498</v>
+      <c r="C23" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>488</v>
+      <c r="C24" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>154</v>
       </c>
@@ -2368,16 +2356,16 @@
         <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>448</v>
       </c>
@@ -2385,16 +2373,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>279</v>
       </c>
@@ -2402,16 +2390,16 @@
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>357</v>
       </c>
@@ -2419,16 +2407,16 @@
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>167</v>
       </c>
@@ -2436,118 +2424,118 @@
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>494</v>
+      <c r="C30" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>495</v>
+      <c r="C31" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>497</v>
+      <c r="C32" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>496</v>
+      <c r="C33" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>498</v>
+      <c r="C34" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>488</v>
+      <c r="C35" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>424</v>
       </c>
@@ -2555,16 +2543,16 @@
         <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>172</v>
       </c>
@@ -2572,16 +2560,16 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>464</v>
       </c>
@@ -2589,16 +2577,16 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>387</v>
       </c>
@@ -2606,16 +2594,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>471</v>
       </c>
@@ -2623,118 +2611,118 @@
         <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>494</v>
+      <c r="C41" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>495</v>
+      <c r="C42" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>497</v>
+      <c r="C43" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>496</v>
+      <c r="C44" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>498</v>
+      <c r="C45" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>488</v>
+      <c r="C46" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>440</v>
       </c>
@@ -2742,16 +2730,16 @@
         <v>69</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>233</v>
       </c>
@@ -2759,16 +2747,16 @@
         <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>240</v>
       </c>
@@ -2776,16 +2764,16 @@
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>315</v>
       </c>
@@ -2793,16 +2781,16 @@
         <v>29</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>169</v>
       </c>
@@ -2810,118 +2798,118 @@
         <v>13</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>494</v>
+      <c r="C52" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>495</v>
+      <c r="C53" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>497</v>
+      <c r="C54" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>496</v>
+      <c r="C55" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>469</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>498</v>
+      <c r="C56" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>488</v>
+      <c r="C57" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>144</v>
       </c>
@@ -2929,16 +2917,16 @@
         <v>29</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -2946,16 +2934,16 @@
         <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>219</v>
       </c>
@@ -2963,16 +2951,16 @@
         <v>13</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>158</v>
       </c>
@@ -2980,16 +2968,16 @@
         <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>356</v>
       </c>
@@ -2997,118 +2985,118 @@
         <v>16</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>494</v>
+      <c r="C63" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>495</v>
+      <c r="C64" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>497</v>
+      <c r="C65" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>496</v>
+      <c r="C66" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>498</v>
+      <c r="C67" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>488</v>
+      <c r="C68" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>242</v>
       </c>
@@ -3116,16 +3104,16 @@
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>267</v>
       </c>
@@ -3133,16 +3121,16 @@
         <v>33</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>89</v>
       </c>
@@ -3150,16 +3138,16 @@
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>405</v>
       </c>
@@ -3167,16 +3155,16 @@
         <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>300</v>
       </c>
@@ -3184,118 +3172,118 @@
         <v>13</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>350</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>494</v>
+      <c r="C74" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>495</v>
+      <c r="C75" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>497</v>
+      <c r="C76" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>496</v>
+      <c r="C77" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>498</v>
+      <c r="C78" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>454</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>488</v>
+      <c r="C79" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>354</v>
       </c>
@@ -3303,16 +3291,16 @@
         <v>26</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>330</v>
       </c>
@@ -3320,16 +3308,16 @@
         <v>29</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>93</v>
       </c>
@@ -3337,16 +3325,16 @@
         <v>11</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>217</v>
       </c>
@@ -3354,16 +3342,16 @@
         <v>13</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>400</v>
       </c>
@@ -3371,118 +3359,118 @@
         <v>16</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>494</v>
+      <c r="C85" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>495</v>
+      <c r="C86" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>445</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>497</v>
+      <c r="C87" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>496</v>
+      <c r="C88" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>498</v>
+      <c r="C89" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>488</v>
+      <c r="C90" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>195</v>
       </c>
@@ -3490,16 +3478,16 @@
         <v>13</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>283</v>
       </c>
@@ -3507,16 +3495,16 @@
         <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>277</v>
       </c>
@@ -3524,16 +3512,16 @@
         <v>39</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>136</v>
       </c>
@@ -3541,16 +3529,16 @@
         <v>26</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>324</v>
       </c>
@@ -3558,118 +3546,118 @@
         <v>13</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>494</v>
+      <c r="C96" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>495</v>
+      <c r="C97" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>497</v>
+      <c r="C98" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>458</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>496</v>
+      <c r="C99" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>498</v>
+      <c r="C100" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>488</v>
+      <c r="C101" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>436</v>
       </c>
@@ -3677,16 +3665,16 @@
         <v>17</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>465</v>
       </c>
@@ -3694,16 +3682,16 @@
         <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>450</v>
       </c>
@@ -3711,16 +3699,16 @@
         <v>29</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -3728,16 +3716,16 @@
         <v>3</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>83</v>
       </c>
@@ -3745,118 +3733,118 @@
         <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>494</v>
+      <c r="C107" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>495</v>
+      <c r="C108" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>497</v>
+      <c r="C109" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>496</v>
+      <c r="C110" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>498</v>
+      <c r="C111" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>488</v>
+      <c r="C112" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>392</v>
       </c>
@@ -3864,16 +3852,16 @@
         <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>358</v>
       </c>
@@ -3881,16 +3869,16 @@
         <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>193</v>
       </c>
@@ -3898,16 +3886,16 @@
         <v>13</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>97</v>
       </c>
@@ -3915,16 +3903,16 @@
         <v>9</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>104</v>
       </c>
@@ -3932,118 +3920,118 @@
         <v>6</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>494</v>
+      <c r="C118" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>495</v>
+      <c r="C119" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>497</v>
+      <c r="C120" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>496</v>
+      <c r="C121" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>498</v>
+      <c r="C122" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>488</v>
+      <c r="C123" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>214</v>
       </c>
@@ -4051,16 +4039,16 @@
         <v>43</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>389</v>
       </c>
@@ -4068,16 +4056,16 @@
         <v>12</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>402</v>
       </c>
@@ -4085,16 +4073,16 @@
         <v>52</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>339</v>
       </c>
@@ -4102,16 +4090,16 @@
         <v>16</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>211</v>
       </c>
@@ -4119,118 +4107,118 @@
         <v>13</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>494</v>
+      <c r="C129" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>495</v>
+      <c r="C130" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>497</v>
+      <c r="C131" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>453</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>496</v>
+      <c r="C132" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>498</v>
+      <c r="C133" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>488</v>
+      <c r="C134" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>367</v>
       </c>
@@ -4238,16 +4226,16 @@
         <v>16</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>426</v>
       </c>
@@ -4255,16 +4243,16 @@
         <v>16</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>87</v>
       </c>
@@ -4272,16 +4260,16 @@
         <v>5</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>269</v>
       </c>
@@ -4289,16 +4277,16 @@
         <v>13</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>237</v>
       </c>
@@ -4306,118 +4294,118 @@
         <v>16</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>494</v>
+      <c r="C140" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>495</v>
+      <c r="C141" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>497</v>
+      <c r="C142" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>496</v>
+      <c r="C143" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>498</v>
+      <c r="C144" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>488</v>
+      <c r="C145" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>461</v>
       </c>
@@ -4425,16 +4413,16 @@
         <v>16</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>306</v>
       </c>
@@ -4442,16 +4430,16 @@
         <v>3</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>276</v>
       </c>
@@ -4459,16 +4447,16 @@
         <v>55</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>281</v>
       </c>
@@ -4476,16 +4464,16 @@
         <v>17</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>203</v>
       </c>
@@ -4493,118 +4481,118 @@
         <v>41</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>494</v>
+      <c r="C151" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>495</v>
+      <c r="C152" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>497</v>
+      <c r="C153" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>496</v>
+      <c r="C154" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>498</v>
+      <c r="C155" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>488</v>
+      <c r="C156" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>88</v>
       </c>
@@ -4612,16 +4600,16 @@
         <v>0</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>254</v>
       </c>
@@ -4629,16 +4617,16 @@
         <v>28</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>164</v>
       </c>
@@ -4646,16 +4634,16 @@
         <v>33</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>395</v>
       </c>
@@ -4663,16 +4651,16 @@
         <v>29</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>320</v>
       </c>
@@ -4680,118 +4668,118 @@
         <v>13</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>494</v>
+      <c r="C162" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>495</v>
+      <c r="C163" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>497</v>
+      <c r="C164" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>496</v>
+      <c r="C165" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>498</v>
+      <c r="C166" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>488</v>
+      <c r="C167" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>86</v>
       </c>
@@ -4799,16 +4787,16 @@
         <v>9</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>126</v>
       </c>
@@ -4816,16 +4804,16 @@
         <v>16</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>111</v>
       </c>
@@ -4833,16 +4821,16 @@
         <v>17</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>198</v>
       </c>
@@ -4850,16 +4838,16 @@
         <v>13</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>252</v>
       </c>
@@ -4867,118 +4855,118 @@
         <v>13</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>494</v>
+      <c r="C173" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>495</v>
+      <c r="C174" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>497</v>
+      <c r="C175" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>496</v>
+      <c r="C176" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>498</v>
+      <c r="C177" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>488</v>
+      <c r="C178" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>452</v>
       </c>
@@ -4986,16 +4974,16 @@
         <v>44</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>399</v>
       </c>
@@ -5003,16 +4991,16 @@
         <v>16</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>466</v>
       </c>
@@ -5020,16 +5008,16 @@
         <v>16</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>77</v>
       </c>
@@ -5037,16 +5025,16 @@
         <v>5</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>404</v>
       </c>
@@ -5054,118 +5042,118 @@
         <v>3</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>494</v>
+      <c r="C184" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>495</v>
+      <c r="C185" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>497</v>
+      <c r="C186" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>496</v>
+      <c r="C187" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>498</v>
+      <c r="C188" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>488</v>
+      <c r="C189" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>263</v>
       </c>
@@ -5173,16 +5161,16 @@
         <v>16</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>261</v>
       </c>
@@ -5190,16 +5178,16 @@
         <v>13</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>318</v>
       </c>
@@ -5207,16 +5195,16 @@
         <v>61</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>98</v>
       </c>
@@ -5224,16 +5212,16 @@
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>328</v>
       </c>
@@ -5241,118 +5229,118 @@
         <v>16</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>494</v>
+      <c r="C195" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>495</v>
+      <c r="C196" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>497</v>
+      <c r="C197" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>496</v>
+      <c r="C198" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>498</v>
+      <c r="C199" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>488</v>
+      <c r="C200" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>310</v>
       </c>
@@ -5360,16 +5348,16 @@
         <v>6</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>264</v>
       </c>
@@ -5377,16 +5365,16 @@
         <v>33</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>105</v>
       </c>
@@ -5394,16 +5382,16 @@
         <v>3</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>353</v>
       </c>
@@ -5411,16 +5399,16 @@
         <v>16</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>411</v>
       </c>
@@ -5428,118 +5416,118 @@
         <v>38</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>470</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>494</v>
+      <c r="C206" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>495</v>
+      <c r="C207" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>497</v>
+      <c r="C208" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>496</v>
+      <c r="C209" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>498</v>
+      <c r="C210" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>488</v>
+      <c r="C211" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>383</v>
       </c>
@@ -5547,16 +5535,16 @@
         <v>16</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>179</v>
       </c>
@@ -5564,16 +5552,16 @@
         <v>13</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>162</v>
       </c>
@@ -5581,16 +5569,16 @@
         <v>13</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>103</v>
       </c>
@@ -5598,16 +5586,16 @@
         <v>9</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>248</v>
       </c>
@@ -5615,118 +5603,118 @@
         <v>51</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>494</v>
+      <c r="C217" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>495</v>
+      <c r="C218" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>497</v>
+      <c r="C219" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>496</v>
+      <c r="C220" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>498</v>
+      <c r="C221" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>488</v>
+      <c r="C222" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>462</v>
       </c>
@@ -5734,16 +5722,16 @@
         <v>71</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>423</v>
       </c>
@@ -5751,16 +5739,16 @@
         <v>13</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>304</v>
       </c>
@@ -5768,16 +5756,16 @@
         <v>39</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>410</v>
       </c>
@@ -5785,16 +5773,16 @@
         <v>39</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>325</v>
       </c>
@@ -5802,118 +5790,118 @@
         <v>16</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>494</v>
+      <c r="C228" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>406</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>495</v>
+      <c r="C229" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>497</v>
+      <c r="C230" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>496</v>
+      <c r="C231" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>498</v>
+      <c r="C232" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>488</v>
+      <c r="C233" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>414</v>
       </c>
@@ -5921,16 +5909,16 @@
         <v>13</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>229</v>
       </c>
@@ -5938,16 +5926,16 @@
         <v>13</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>368</v>
       </c>
@@ -5955,16 +5943,16 @@
         <v>13</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>216</v>
       </c>
@@ -5972,16 +5960,16 @@
         <v>13</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>205</v>
       </c>
@@ -5989,118 +5977,118 @@
         <v>29</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>494</v>
+      <c r="C239" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>495</v>
+      <c r="C240" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>497</v>
+      <c r="C241" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>496</v>
+      <c r="C242" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>498</v>
+      <c r="C243" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>488</v>
+      <c r="C244" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>299</v>
       </c>
@@ -6108,16 +6096,16 @@
         <v>13</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>101</v>
       </c>
@@ -6125,16 +6113,16 @@
         <v>9</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>476</v>
       </c>
@@ -6142,16 +6130,16 @@
         <v>16</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>397</v>
       </c>
@@ -6159,16 +6147,16 @@
         <v>13</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>285</v>
       </c>
@@ -6176,118 +6164,118 @@
         <v>16</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>494</v>
+      <c r="C250" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C251" s="6" t="s">
-        <v>495</v>
+      <c r="C251" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>425</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>497</v>
+      <c r="C252" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C253" s="6" t="s">
-        <v>496</v>
+      <c r="C253" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C254" s="6" t="s">
-        <v>498</v>
+      <c r="C254" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C255" s="4" t="s">
-        <v>488</v>
+      <c r="C255" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>131</v>
       </c>
@@ -6295,16 +6283,16 @@
         <v>16</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>343</v>
       </c>
@@ -6312,16 +6300,16 @@
         <v>54</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>363</v>
       </c>
@@ -6329,16 +6317,16 @@
         <v>13</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>380</v>
       </c>
@@ -6346,16 +6334,16 @@
         <v>13</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>107</v>
       </c>
@@ -6363,118 +6351,118 @@
         <v>13</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C261" s="6" t="s">
-        <v>494</v>
+      <c r="C261" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C262" s="6" t="s">
-        <v>495</v>
+      <c r="C262" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C263" s="6" t="s">
-        <v>497</v>
+      <c r="C263" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>496</v>
+      <c r="C264" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C265" s="6" t="s">
-        <v>498</v>
+      <c r="C265" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>488</v>
+      <c r="C266" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>201</v>
       </c>
@@ -6482,16 +6470,16 @@
         <v>16</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>244</v>
       </c>
@@ -6499,16 +6487,16 @@
         <v>48</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>222</v>
       </c>
@@ -6516,16 +6504,16 @@
         <v>44</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>168</v>
       </c>
@@ -6533,16 +6521,16 @@
         <v>13</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>82</v>
       </c>
@@ -6550,118 +6538,118 @@
         <v>6</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>494</v>
+      <c r="C272" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>495</v>
+      <c r="C273" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C274" s="6" t="s">
-        <v>497</v>
+      <c r="C274" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>496</v>
+      <c r="C275" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>498</v>
+      <c r="C276" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C277" s="4" t="s">
-        <v>488</v>
+      <c r="C277" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>428</v>
       </c>
@@ -6669,16 +6657,16 @@
         <v>13</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>120</v>
       </c>
@@ -6686,16 +6674,16 @@
         <v>20</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>294</v>
       </c>
@@ -6703,16 +6691,16 @@
         <v>56</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>84</v>
       </c>
@@ -6720,16 +6708,16 @@
         <v>6</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>181</v>
       </c>
@@ -6737,118 +6725,118 @@
         <v>13</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>494</v>
+      <c r="C283" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C284" s="6" t="s">
-        <v>495</v>
+      <c r="C284" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>497</v>
+      <c r="C285" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C286" s="6" t="s">
-        <v>496</v>
+      <c r="C286" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C287" s="6" t="s">
-        <v>498</v>
+      <c r="C287" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C288" s="4" t="s">
-        <v>488</v>
+      <c r="C288" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>118</v>
       </c>
@@ -6856,16 +6844,16 @@
         <v>16</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>155</v>
       </c>
@@ -6873,16 +6861,16 @@
         <v>29</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>156</v>
       </c>
@@ -6890,16 +6878,16 @@
         <v>31</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>447</v>
       </c>
@@ -6907,16 +6895,16 @@
         <v>16</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>225</v>
       </c>
@@ -6924,118 +6912,118 @@
         <v>16</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C294" s="6" t="s">
-        <v>494</v>
+      <c r="C294" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C295" s="6" t="s">
-        <v>495</v>
+      <c r="C295" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C296" s="6" t="s">
-        <v>497</v>
+      <c r="C296" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C297" s="6" t="s">
-        <v>496</v>
+      <c r="C297" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C298" s="6" t="s">
-        <v>498</v>
+      <c r="C298" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C299" s="4" t="s">
-        <v>488</v>
+      <c r="C299" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>352</v>
       </c>
@@ -7043,16 +7031,16 @@
         <v>13</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>268</v>
       </c>
@@ -7060,16 +7048,16 @@
         <v>13</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>180</v>
       </c>
@@ -7077,16 +7065,16 @@
         <v>27</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>408</v>
       </c>
@@ -7094,16 +7082,16 @@
         <v>66</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>227</v>
       </c>
@@ -7111,118 +7099,118 @@
         <v>14</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C305" s="6" t="s">
-        <v>494</v>
+      <c r="C305" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C306" s="6" t="s">
-        <v>495</v>
+      <c r="C306" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C307" s="6" t="s">
-        <v>497</v>
+      <c r="C307" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C308" s="6" t="s">
-        <v>496</v>
+      <c r="C308" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C309" s="6" t="s">
-        <v>498</v>
+      <c r="C309" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C310" s="4" t="s">
-        <v>488</v>
+      <c r="C310" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>407</v>
       </c>
@@ -7230,16 +7218,16 @@
         <v>19</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>190</v>
       </c>
@@ -7247,16 +7235,16 @@
         <v>13</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>150</v>
       </c>
@@ -7264,16 +7252,16 @@
         <v>13</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>427</v>
       </c>
@@ -7281,16 +7269,16 @@
         <v>16</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>419</v>
       </c>
@@ -7298,118 +7286,118 @@
         <v>16</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C316" s="6" t="s">
-        <v>494</v>
+      <c r="C316" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C317" s="6" t="s">
-        <v>495</v>
+      <c r="C317" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C318" s="6" t="s">
-        <v>497</v>
+      <c r="C318" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>463</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C319" s="6" t="s">
-        <v>496</v>
+      <c r="C319" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C320" s="6" t="s">
-        <v>498</v>
+      <c r="C320" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C321" s="4" t="s">
-        <v>488</v>
+      <c r="C321" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>278</v>
       </c>
@@ -7417,16 +7405,16 @@
         <v>14</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>128</v>
       </c>
@@ -7434,16 +7422,16 @@
         <v>13</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>209</v>
       </c>
@@ -7451,16 +7439,16 @@
         <v>24</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>232</v>
       </c>
@@ -7468,16 +7456,16 @@
         <v>13</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>239</v>
       </c>
@@ -7485,118 +7473,118 @@
         <v>30</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C327" s="6" t="s">
-        <v>494</v>
+      <c r="C327" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>468</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C328" s="6" t="s">
-        <v>495</v>
+      <c r="C328" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C329" s="6" t="s">
-        <v>497</v>
+      <c r="C329" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C330" s="6" t="s">
-        <v>496</v>
+      <c r="C330" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C331" s="6" t="s">
-        <v>498</v>
+      <c r="C331" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C332" s="4" t="s">
-        <v>488</v>
+      <c r="C332" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>329</v>
       </c>
@@ -7604,16 +7592,16 @@
         <v>13</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>124</v>
       </c>
@@ -7621,16 +7609,16 @@
         <v>17</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>256</v>
       </c>
@@ -7638,16 +7626,16 @@
         <v>13</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>438</v>
       </c>
@@ -7655,16 +7643,16 @@
         <v>13</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>163</v>
       </c>
@@ -7672,118 +7660,118 @@
         <v>16</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C338" s="6" t="s">
-        <v>494</v>
+      <c r="C338" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C339" s="6" t="s">
-        <v>495</v>
+      <c r="C339" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C340" s="6" t="s">
-        <v>497</v>
+      <c r="C340" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C341" s="6" t="s">
-        <v>496</v>
+      <c r="C341" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C342" s="6" t="s">
-        <v>498</v>
+      <c r="C342" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C343" s="4" t="s">
-        <v>488</v>
+      <c r="C343" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>435</v>
       </c>
@@ -7791,16 +7779,16 @@
         <v>16</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>94</v>
       </c>
@@ -7808,16 +7796,16 @@
         <v>9</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>302</v>
       </c>
@@ -7825,16 +7813,16 @@
         <v>13</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>373</v>
       </c>
@@ -7842,16 +7830,16 @@
         <v>16</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>296</v>
       </c>
@@ -7859,118 +7847,118 @@
         <v>39</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C349" s="6" t="s">
-        <v>494</v>
+      <c r="C349" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C350" s="6" t="s">
-        <v>495</v>
+      <c r="C350" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C351" s="6" t="s">
-        <v>497</v>
+      <c r="C351" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C352" s="6" t="s">
-        <v>496</v>
+      <c r="C352" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C353" s="6" t="s">
-        <v>498</v>
+      <c r="C353" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C354" s="4" t="s">
-        <v>488</v>
+      <c r="C354" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>418</v>
       </c>
@@ -7978,16 +7966,16 @@
         <v>29</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>434</v>
       </c>
@@ -7995,16 +7983,16 @@
         <v>16</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>253</v>
       </c>
@@ -8012,16 +8000,16 @@
         <v>16</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>473</v>
       </c>
@@ -8029,16 +8017,16 @@
         <v>13</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>386</v>
       </c>
@@ -8046,118 +8034,118 @@
         <v>29</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C360" s="6" t="s">
-        <v>494</v>
+      <c r="C360" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C361" s="6" t="s">
-        <v>495</v>
+      <c r="C361" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C362" s="6" t="s">
-        <v>497</v>
+      <c r="C362" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C363" s="6" t="s">
-        <v>496</v>
+      <c r="C363" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="6" t="s">
-        <v>498</v>
+      <c r="C364" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C365" s="4" t="s">
-        <v>488</v>
+      <c r="C365" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>75</v>
       </c>
@@ -8165,16 +8153,16 @@
         <v>2</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>255</v>
       </c>
@@ -8182,16 +8170,16 @@
         <v>53</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>422</v>
       </c>
@@ -8199,16 +8187,16 @@
         <v>6</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>441</v>
       </c>
@@ -8216,16 +8204,16 @@
         <v>13</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>301</v>
       </c>
@@ -8233,118 +8221,118 @@
         <v>13</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C371" s="6" t="s">
-        <v>494</v>
+      <c r="C371" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C372" s="6" t="s">
-        <v>495</v>
+      <c r="C372" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C373" s="6" t="s">
-        <v>497</v>
+      <c r="C373" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C374" s="6" t="s">
-        <v>496</v>
+      <c r="C374" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C375" s="6" t="s">
-        <v>498</v>
+      <c r="C375" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C376" s="4" t="s">
-        <v>488</v>
+      <c r="C376" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>351</v>
       </c>
@@ -8352,16 +8340,16 @@
         <v>6</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>372</v>
       </c>
@@ -8369,16 +8357,16 @@
         <v>13</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>250</v>
       </c>
@@ -8386,16 +8374,16 @@
         <v>29</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>135</v>
       </c>
@@ -8403,16 +8391,16 @@
         <v>16</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>146</v>
       </c>
@@ -8420,118 +8408,118 @@
         <v>16</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C382" s="6" t="s">
-        <v>494</v>
+      <c r="C382" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C383" s="6" t="s">
-        <v>495</v>
+      <c r="C383" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C384" s="6" t="s">
-        <v>497</v>
+      <c r="C384" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C385" s="6" t="s">
-        <v>496</v>
+      <c r="C385" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C386" s="6" t="s">
-        <v>498</v>
+      <c r="C386" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C387" s="4" t="s">
-        <v>488</v>
+      <c r="C387" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>290</v>
       </c>
@@ -8539,16 +8527,16 @@
         <v>27</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>186</v>
       </c>
@@ -8556,16 +8544,16 @@
         <v>38</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>140</v>
       </c>
@@ -8573,16 +8561,16 @@
         <v>28</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>333</v>
       </c>
@@ -8590,16 +8578,16 @@
         <v>6</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>199</v>
       </c>
@@ -8607,118 +8595,118 @@
         <v>20</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C393" s="6" t="s">
-        <v>494</v>
+      <c r="C393" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C394" s="6" t="s">
-        <v>495</v>
+      <c r="C394" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C395" s="6" t="s">
-        <v>497</v>
+      <c r="C395" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C396" s="6" t="s">
-        <v>496</v>
+      <c r="C396" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C397" s="6" t="s">
-        <v>498</v>
+      <c r="C397" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C398" s="4" t="s">
-        <v>488</v>
+      <c r="C398" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>369</v>
       </c>
@@ -8726,16 +8714,16 @@
         <v>13</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>95</v>
       </c>
@@ -8743,16 +8731,16 @@
         <v>9</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>413</v>
       </c>
@@ -8760,16 +8748,16 @@
         <v>13</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>289</v>
       </c>
@@ -8777,16 +8765,16 @@
         <v>16</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>204</v>
       </c>
@@ -8794,47 +8782,47 @@
         <v>16</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C404" s="6" t="s">
-        <v>494</v>
+      <c r="C404" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C405" s="6" t="s">
-        <v>495</v>
+      <c r="C405" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/project/src/assets/Data.xlsx
+++ b/project/src/assets/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular_Assignment\project\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945D816C-3C0A-4C94-855A-77BAA2F86E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CEDF15-9085-413C-9882-900500A54CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BCE59C97-D87D-4094-ACE4-A0E381088985}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{BCE59C97-D87D-4094-ACE4-A0E381088985}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1923,7 +1923,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
